--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/nhs/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9407A321-BDB3-F24C-82F5-0D697112A2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4AB0E6-A674-E44E-8B32-9280788C9339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="-28300" windowWidth="38220" windowHeight="28300" activeTab="5" xr2:uid="{9F0F0AC9-5C7F-464B-8849-597E840CF182}"/>
+    <workbookView xWindow="-17780" yWindow="-28300" windowWidth="30560" windowHeight="28300" activeTab="6" xr2:uid="{9F0F0AC9-5C7F-464B-8849-597E840CF182}"/>
   </bookViews>
   <sheets>
     <sheet name="Table Design" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="nurse" sheetId="6" r:id="rId3"/>
     <sheet name="day" sheetId="4" r:id="rId4"/>
     <sheet name="week" sheetId="2" r:id="rId5"/>
-    <sheet name="shift" sheetId="3" r:id="rId6"/>
+    <sheet name="schedule_priority" sheetId="8" r:id="rId6"/>
+    <sheet name="shift" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="199">
   <si>
     <t>2024-9-14</t>
   </si>
@@ -635,6 +636,9 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>priority_id</t>
   </si>
 </sst>
 </file>
@@ -3000,10 +3004,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5603CB16-93C0-C14F-BA34-E42A0780428B}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3011,7 +3015,7 @@
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -3019,19 +3023,22 @@
         <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -3039,19 +3046,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -3059,19 +3069,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3079,19 +3092,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3099,19 +3115,22 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3119,19 +3138,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3139,15 +3161,18 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3157,49 +3182,569 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7006C3E6-2096-2047-B7FD-93A4752D6288}">
-  <dimension ref="A1:I85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576997F4-6473-C64C-9C6A-4AB36C8EA13A}">
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K71" sqref="K71"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>14</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>15</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7006C3E6-2096-2047-B7FD-93A4752D6288}">
+  <dimension ref="A1:J85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3210,25 +3755,28 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>197</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3236,28 +3784,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>197</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3268,25 +3819,28 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>197</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3294,28 +3848,31 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>197</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3326,25 +3883,28 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>197</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3352,28 +3912,31 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>197</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3384,25 +3947,28 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>197</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3410,28 +3976,31 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
-        <v>197</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>197</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3442,25 +4011,28 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>197</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>197</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3468,28 +4040,31 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>197</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>197</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3500,25 +4075,28 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>197</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>197</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3526,28 +4104,31 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
-        <v>197</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>197</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="I13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3558,25 +4139,28 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>197</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>197</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>4</v>
-      </c>
-      <c r="I14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3584,28 +4168,31 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
-        <v>197</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>197</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="I15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3616,25 +4203,28 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>197</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>197</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>4</v>
-      </c>
-      <c r="I16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3642,28 +4232,31 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
-        <v>197</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>197</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3674,25 +4267,28 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>197</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>197</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>4</v>
-      </c>
-      <c r="I18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3700,28 +4296,31 @@
         <v>9</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>197</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3732,25 +4331,28 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>197</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>4</v>
-      </c>
-      <c r="I20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3758,28 +4360,31 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
-        <v>197</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>197</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>3</v>
-      </c>
-      <c r="I21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3790,25 +4395,28 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>197</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>197</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>4</v>
-      </c>
-      <c r="I22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3816,28 +4424,31 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" t="s">
-        <v>197</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>197</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3848,25 +4459,28 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>197</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>197</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>4</v>
-      </c>
-      <c r="I24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3874,28 +4488,31 @@
         <v>12</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" t="s">
-        <v>197</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>197</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3906,25 +4523,28 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>197</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>197</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>4</v>
-      </c>
-      <c r="I26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3932,28 +4552,31 @@
         <v>13</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" t="s">
-        <v>197</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>197</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>3</v>
-      </c>
-      <c r="I27" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3964,25 +4587,28 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>197</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>197</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H28">
-        <v>4</v>
-      </c>
-      <c r="I28" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3990,28 +4616,31 @@
         <v>14</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
-        <v>197</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>197</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4022,25 +4651,28 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>197</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>197</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>4</v>
-      </c>
-      <c r="I30" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4048,28 +4680,31 @@
         <v>15</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
-        <v>197</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>197</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>3</v>
-      </c>
-      <c r="I31" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4080,25 +4715,28 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>197</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>197</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>4</v>
-      </c>
-      <c r="I32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4106,28 +4744,31 @@
         <v>16</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33" t="s">
-        <v>197</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>197</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>3</v>
-      </c>
-      <c r="I33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4138,25 +4779,28 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>197</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>197</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>4</v>
-      </c>
-      <c r="I34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4164,28 +4808,31 @@
         <v>17</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" t="s">
-        <v>197</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>197</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H35">
-        <v>3</v>
-      </c>
-      <c r="I35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4196,25 +4843,28 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>197</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>197</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>4</v>
-      </c>
-      <c r="I36" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4222,28 +4872,31 @@
         <v>18</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37" t="s">
-        <v>197</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>197</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>3</v>
-      </c>
-      <c r="I37" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4251,28 +4904,31 @@
         <v>19</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>197</v>
-      </c>
-      <c r="F38">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>197</v>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>4</v>
-      </c>
-      <c r="I38" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4280,28 +4936,31 @@
         <v>19</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39" t="s">
-        <v>197</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>197</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>3</v>
-      </c>
-      <c r="I39" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4309,28 +4968,31 @@
         <v>20</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>197</v>
-      </c>
-      <c r="F40">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>197</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>4</v>
-      </c>
-      <c r="I40" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4338,28 +5000,31 @@
         <v>20</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" t="s">
-        <v>197</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>197</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H41">
-        <v>3</v>
-      </c>
-      <c r="I41" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4367,28 +5032,31 @@
         <v>21</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>197</v>
-      </c>
-      <c r="F42">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>197</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H42">
-        <v>4</v>
-      </c>
-      <c r="I42" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4396,28 +5064,31 @@
         <v>21</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43" t="s">
-        <v>197</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>197</v>
       </c>
       <c r="G43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H43">
-        <v>3</v>
-      </c>
-      <c r="I43" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4425,28 +5096,31 @@
         <v>22</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
-        <v>197</v>
-      </c>
-      <c r="F44">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>197</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H44">
-        <v>4</v>
-      </c>
-      <c r="I44" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4454,28 +5128,31 @@
         <v>22</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45" t="s">
-        <v>197</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>197</v>
       </c>
       <c r="G45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H45">
-        <v>3</v>
-      </c>
-      <c r="I45" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4483,28 +5160,31 @@
         <v>23</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>197</v>
-      </c>
-      <c r="F46">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>197</v>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H46">
-        <v>4</v>
-      </c>
-      <c r="I46" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4512,28 +5192,31 @@
         <v>23</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47" t="s">
-        <v>197</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>197</v>
       </c>
       <c r="G47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H47">
-        <v>3</v>
-      </c>
-      <c r="I47" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4541,28 +5224,31 @@
         <v>24</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48" t="s">
-        <v>197</v>
-      </c>
-      <c r="F48">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>197</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H48">
-        <v>4</v>
-      </c>
-      <c r="I48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4570,28 +5256,31 @@
         <v>24</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" t="s">
-        <v>197</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>197</v>
       </c>
       <c r="G49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H49">
-        <v>3</v>
-      </c>
-      <c r="I49" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4599,28 +5288,31 @@
         <v>25</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>197</v>
-      </c>
-      <c r="F50">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>197</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H50">
-        <v>4</v>
-      </c>
-      <c r="I50" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4628,28 +5320,31 @@
         <v>25</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51" t="s">
-        <v>197</v>
-      </c>
-      <c r="F51">
-        <v>2</v>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>197</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>3</v>
-      </c>
-      <c r="I51" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4657,28 +5352,31 @@
         <v>26</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52" t="s">
-        <v>197</v>
-      </c>
-      <c r="F52">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>197</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H52">
-        <v>4</v>
-      </c>
-      <c r="I52" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4686,28 +5384,31 @@
         <v>26</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
-      <c r="E53" t="s">
-        <v>197</v>
-      </c>
-      <c r="F53">
-        <v>2</v>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>197</v>
       </c>
       <c r="G53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H53">
-        <v>3</v>
-      </c>
-      <c r="I53" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4715,28 +5416,31 @@
         <v>27</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54" t="s">
-        <v>197</v>
-      </c>
-      <c r="F54">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>197</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H54">
-        <v>4</v>
-      </c>
-      <c r="I54" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4744,28 +5448,31 @@
         <v>27</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55" t="s">
-        <v>197</v>
-      </c>
-      <c r="F55">
-        <v>2</v>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>197</v>
       </c>
       <c r="G55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H55">
-        <v>3</v>
-      </c>
-      <c r="I55" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4773,28 +5480,31 @@
         <v>28</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>197</v>
-      </c>
-      <c r="F56">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>197</v>
       </c>
       <c r="G56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H56">
-        <v>4</v>
-      </c>
-      <c r="I56" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4802,28 +5512,31 @@
         <v>28</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
-      <c r="E57" t="s">
-        <v>197</v>
-      </c>
-      <c r="F57">
-        <v>2</v>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>197</v>
       </c>
       <c r="G57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H57">
-        <v>3</v>
-      </c>
-      <c r="I57" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4831,28 +5544,31 @@
         <v>29</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58" t="s">
-        <v>197</v>
-      </c>
-      <c r="F58">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>197</v>
       </c>
       <c r="G58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H58">
-        <v>4</v>
-      </c>
-      <c r="I58" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4860,28 +5576,31 @@
         <v>29</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
-      <c r="E59" t="s">
-        <v>197</v>
-      </c>
-      <c r="F59">
-        <v>2</v>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>197</v>
       </c>
       <c r="G59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H59">
-        <v>3</v>
-      </c>
-      <c r="I59" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+      <c r="J59" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4889,28 +5608,31 @@
         <v>30</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60" t="s">
-        <v>197</v>
-      </c>
-      <c r="F60">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>197</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H60">
-        <v>4</v>
-      </c>
-      <c r="I60" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+      <c r="J60" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4918,28 +5640,31 @@
         <v>30</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61" t="s">
-        <v>197</v>
-      </c>
-      <c r="F61">
-        <v>2</v>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>197</v>
       </c>
       <c r="G61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H61">
-        <v>3</v>
-      </c>
-      <c r="I61" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4947,28 +5672,31 @@
         <v>31</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>197</v>
-      </c>
-      <c r="F62">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>197</v>
       </c>
       <c r="G62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H62">
-        <v>4</v>
-      </c>
-      <c r="I62" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I62">
+        <v>4</v>
+      </c>
+      <c r="J62" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4976,28 +5704,31 @@
         <v>31</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
-      <c r="E63" t="s">
-        <v>197</v>
-      </c>
-      <c r="F63">
-        <v>2</v>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>197</v>
       </c>
       <c r="G63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H63">
-        <v>3</v>
-      </c>
-      <c r="I63" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I63">
+        <v>3</v>
+      </c>
+      <c r="J63" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5005,28 +5736,31 @@
         <v>32</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64" t="s">
-        <v>197</v>
-      </c>
-      <c r="F64">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>197</v>
       </c>
       <c r="G64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H64">
-        <v>4</v>
-      </c>
-      <c r="I64" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I64">
+        <v>4</v>
+      </c>
+      <c r="J64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5034,28 +5768,31 @@
         <v>32</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
-      <c r="E65" t="s">
-        <v>197</v>
-      </c>
-      <c r="F65">
-        <v>2</v>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>197</v>
       </c>
       <c r="G65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H65">
-        <v>3</v>
-      </c>
-      <c r="I65" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I65">
+        <v>3</v>
+      </c>
+      <c r="J65" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5063,28 +5800,31 @@
         <v>33</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F66">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>197</v>
       </c>
       <c r="G66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H66">
-        <v>4</v>
-      </c>
-      <c r="I66" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+      <c r="J66" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5092,28 +5832,31 @@
         <v>33</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
-      <c r="E67" t="s">
-        <v>197</v>
-      </c>
-      <c r="F67">
-        <v>2</v>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>197</v>
       </c>
       <c r="G67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H67">
-        <v>3</v>
-      </c>
-      <c r="I67" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
+      <c r="J67" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5121,28 +5864,31 @@
         <v>34</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68" t="s">
-        <v>197</v>
-      </c>
-      <c r="F68">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>197</v>
       </c>
       <c r="G68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H68">
-        <v>4</v>
-      </c>
-      <c r="I68" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I68">
+        <v>4</v>
+      </c>
+      <c r="J68" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5150,28 +5896,31 @@
         <v>34</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
-      <c r="E69" t="s">
-        <v>197</v>
-      </c>
-      <c r="F69">
-        <v>2</v>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>197</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H69">
-        <v>3</v>
-      </c>
-      <c r="I69" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I69">
+        <v>3</v>
+      </c>
+      <c r="J69" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5179,28 +5928,31 @@
         <v>35</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70" t="s">
-        <v>197</v>
-      </c>
-      <c r="F70">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>197</v>
       </c>
       <c r="G70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H70">
-        <v>4</v>
-      </c>
-      <c r="I70" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I70">
+        <v>4</v>
+      </c>
+      <c r="J70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5208,28 +5960,31 @@
         <v>35</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
-      <c r="E71" t="s">
-        <v>197</v>
-      </c>
-      <c r="F71">
-        <v>2</v>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>197</v>
       </c>
       <c r="G71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H71">
-        <v>3</v>
-      </c>
-      <c r="I71" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I71">
+        <v>3</v>
+      </c>
+      <c r="J71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5237,28 +5992,31 @@
         <v>36</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72" t="s">
-        <v>197</v>
-      </c>
-      <c r="F72">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>197</v>
       </c>
       <c r="G72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H72">
-        <v>4</v>
-      </c>
-      <c r="I72" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I72">
+        <v>4</v>
+      </c>
+      <c r="J72" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5266,28 +6024,31 @@
         <v>36</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
-      <c r="E73" t="s">
-        <v>197</v>
-      </c>
-      <c r="F73">
-        <v>2</v>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>197</v>
       </c>
       <c r="G73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H73">
-        <v>3</v>
-      </c>
-      <c r="I73" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I73">
+        <v>3</v>
+      </c>
+      <c r="J73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5295,28 +6056,31 @@
         <v>37</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74" t="s">
-        <v>197</v>
-      </c>
-      <c r="F74">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>197</v>
       </c>
       <c r="G74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H74">
-        <v>4</v>
-      </c>
-      <c r="I74" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I74">
+        <v>4</v>
+      </c>
+      <c r="J74" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5324,28 +6088,31 @@
         <v>37</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
-      <c r="E75" t="s">
-        <v>197</v>
-      </c>
-      <c r="F75">
-        <v>2</v>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>197</v>
       </c>
       <c r="G75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H75">
-        <v>3</v>
-      </c>
-      <c r="I75" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5353,28 +6120,31 @@
         <v>38</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76" t="s">
-        <v>197</v>
-      </c>
-      <c r="F76">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>197</v>
       </c>
       <c r="G76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H76">
-        <v>4</v>
-      </c>
-      <c r="I76" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I76">
+        <v>4</v>
+      </c>
+      <c r="J76" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5382,28 +6152,31 @@
         <v>38</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
-      <c r="E77" t="s">
-        <v>197</v>
-      </c>
-      <c r="F77">
-        <v>2</v>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>197</v>
       </c>
       <c r="G77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H77">
-        <v>3</v>
-      </c>
-      <c r="I77" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I77">
+        <v>3</v>
+      </c>
+      <c r="J77" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5411,28 +6184,31 @@
         <v>39</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78" t="s">
-        <v>197</v>
-      </c>
-      <c r="F78">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>197</v>
       </c>
       <c r="G78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H78">
-        <v>4</v>
-      </c>
-      <c r="I78" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I78">
+        <v>4</v>
+      </c>
+      <c r="J78" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5440,28 +6216,31 @@
         <v>39</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
-      <c r="E79" t="s">
-        <v>197</v>
-      </c>
-      <c r="F79">
-        <v>2</v>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>197</v>
       </c>
       <c r="G79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H79">
-        <v>3</v>
-      </c>
-      <c r="I79" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I79">
+        <v>3</v>
+      </c>
+      <c r="J79" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5469,28 +6248,31 @@
         <v>40</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80" t="s">
-        <v>197</v>
-      </c>
-      <c r="F80">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>197</v>
       </c>
       <c r="G80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H80">
-        <v>4</v>
-      </c>
-      <c r="I80" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I80">
+        <v>4</v>
+      </c>
+      <c r="J80" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5498,28 +6280,31 @@
         <v>40</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
-      <c r="E81" t="s">
-        <v>197</v>
-      </c>
-      <c r="F81">
-        <v>2</v>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>197</v>
       </c>
       <c r="G81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H81">
-        <v>3</v>
-      </c>
-      <c r="I81" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I81">
+        <v>3</v>
+      </c>
+      <c r="J81" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5527,28 +6312,31 @@
         <v>41</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82" t="s">
-        <v>197</v>
-      </c>
-      <c r="F82">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>197</v>
       </c>
       <c r="G82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H82">
-        <v>4</v>
-      </c>
-      <c r="I82" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I82">
+        <v>4</v>
+      </c>
+      <c r="J82" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5556,28 +6344,31 @@
         <v>41</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
-      <c r="E83" t="s">
-        <v>197</v>
-      </c>
-      <c r="F83">
-        <v>2</v>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>197</v>
       </c>
       <c r="G83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H83">
-        <v>3</v>
-      </c>
-      <c r="I83" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I83">
+        <v>3</v>
+      </c>
+      <c r="J83" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5585,28 +6376,31 @@
         <v>42</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84" t="s">
-        <v>197</v>
-      </c>
-      <c r="F84">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>197</v>
       </c>
       <c r="G84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H84">
-        <v>4</v>
-      </c>
-      <c r="I84" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I84">
+        <v>4</v>
+      </c>
+      <c r="J84" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5614,24 +6408,27 @@
         <v>42</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
-      <c r="E85" t="s">
-        <v>197</v>
-      </c>
-      <c r="F85">
-        <v>2</v>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>197</v>
       </c>
       <c r="G85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H85">
-        <v>3</v>
-      </c>
-      <c r="I85" t="s">
+        <v>4</v>
+      </c>
+      <c r="I85">
+        <v>3</v>
+      </c>
+      <c r="J85" t="s">
         <v>145</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/nhs/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4AB0E6-A674-E44E-8B32-9280788C9339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDB8783-3D34-C141-9F1E-8A0D4005610B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17780" yWindow="-28300" windowWidth="30560" windowHeight="28300" activeTab="6" xr2:uid="{9F0F0AC9-5C7F-464B-8849-597E840CF182}"/>
+    <workbookView xWindow="-17780" yWindow="-28300" windowWidth="30560" windowHeight="28300" activeTab="3" xr2:uid="{9F0F0AC9-5C7F-464B-8849-597E840CF182}"/>
   </bookViews>
   <sheets>
     <sheet name="Table Design" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="200">
   <si>
     <t>2024-9-14</t>
   </si>
@@ -639,13 +639,16 @@
   </si>
   <si>
     <t>priority_id</t>
+  </si>
+  <si>
+    <t>month</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -688,6 +691,12 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2384,18 +2393,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA4A713-A2B6-5240-AC23-FB68F49E0DD1}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>63</v>
       </c>
@@ -2406,10 +2416,13 @@
         <v>62</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2420,10 +2433,13 @@
         <v>41</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
@@ -2434,10 +2450,13 @@
         <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
@@ -2448,10 +2467,13 @@
         <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
@@ -2462,10 +2484,13 @@
         <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -2476,10 +2501,13 @@
         <v>36</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>38</v>
       </c>
@@ -2490,10 +2518,13 @@
         <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
@@ -2504,10 +2535,13 @@
         <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
@@ -2518,10 +2552,13 @@
         <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -2532,10 +2569,13 @@
         <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -2546,10 +2586,13 @@
         <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -2560,10 +2603,13 @@
         <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
@@ -2574,10 +2620,13 @@
         <v>61</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
@@ -2588,10 +2637,13 @@
         <v>60</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -2602,10 +2654,13 @@
         <v>59</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
@@ -2616,10 +2671,13 @@
         <v>58</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>60</v>
       </c>
@@ -2630,10 +2688,13 @@
         <v>57</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>59</v>
       </c>
@@ -2644,10 +2705,13 @@
         <v>56</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>58</v>
       </c>
@@ -2658,10 +2722,13 @@
         <v>55</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
@@ -2672,10 +2739,13 @@
         <v>54</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>56</v>
       </c>
@@ -2686,10 +2756,13 @@
         <v>53</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>55</v>
       </c>
@@ -2700,10 +2773,13 @@
         <v>52</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>54</v>
       </c>
@@ -2714,10 +2790,13 @@
         <v>51</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
@@ -2728,10 +2807,13 @@
         <v>50</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>52</v>
       </c>
@@ -2742,10 +2824,13 @@
         <v>49</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>51</v>
       </c>
@@ -2756,10 +2841,13 @@
         <v>48</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>50</v>
       </c>
@@ -2770,10 +2858,13 @@
         <v>47</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>49</v>
       </c>
@@ -2784,10 +2875,13 @@
         <v>46</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>48</v>
       </c>
@@ -2798,10 +2892,13 @@
         <v>44</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>47</v>
       </c>
@@ -2812,10 +2909,13 @@
         <v>4</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
@@ -2826,10 +2926,13 @@
         <v>45</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
@@ -2840,10 +2943,13 @@
         <v>43</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>42</v>
       </c>
@@ -2854,10 +2960,13 @@
         <v>41</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>40</v>
       </c>
@@ -2868,10 +2977,13 @@
         <v>39</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>20</v>
       </c>
@@ -2882,10 +2994,13 @@
         <v>38</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
@@ -2896,10 +3011,13 @@
         <v>37</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>14</v>
       </c>
@@ -2910,10 +3028,13 @@
         <v>36</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>11</v>
       </c>
@@ -2924,10 +3045,13 @@
         <v>35</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -2938,10 +3062,13 @@
         <v>34</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>5</v>
       </c>
@@ -2952,10 +3079,13 @@
         <v>33</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>32</v>
       </c>
@@ -2966,10 +3096,13 @@
         <v>31</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>30</v>
       </c>
@@ -2980,10 +3113,13 @@
         <v>29</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>28</v>
       </c>
@@ -2994,20 +3130,24 @@
         <v>27</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5603CB16-93C0-C14F-BA34-E42A0780428B}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3015,7 +3155,7 @@
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -3026,19 +3166,22 @@
         <v>198</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -3049,19 +3192,22 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -3072,19 +3218,22 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3095,19 +3244,22 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3118,19 +3270,22 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3141,19 +3296,22 @@
         <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3164,15 +3322,18 @@
         <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3706,7 +3867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7006C3E6-2096-2047-B7FD-93A4752D6288}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
